--- a/Logboek.xlsx
+++ b/Logboek.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus Wauters Niels\Documents\GitHub\ProjectOnderzoekstechnieken16\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jelle\Documents\GitHub\ProjectOnderzoekstechnieken16\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="22">
   <si>
     <t>Taak</t>
   </si>
@@ -79,6 +79,12 @@
   </si>
   <si>
     <t>30min</t>
+  </si>
+  <si>
+    <t>Opzoeken strategieën en keuze maken welke de beste zijn</t>
+  </si>
+  <si>
+    <t>6u</t>
   </si>
 </sst>
 </file>
@@ -427,7 +433,7 @@
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -589,13 +595,23 @@
       <c r="G9" s="4"/>
     </row>
     <row r="10" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
+      <c r="A10" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="6">
+        <v>42103</v>
+      </c>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
+      <c r="E10" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="11" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A11" s="4"/>

--- a/Logboek.xlsx
+++ b/Logboek.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jelle\Documents\GitHub\ProjectOnderzoekstechnieken16\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jari\Documents\GitHub\ProjectOnderzoekstechnieken16\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7752"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="28">
   <si>
     <t>Taak</t>
   </si>
@@ -84,7 +84,25 @@
     <t>Opzoeken strategieën en keuze maken welke de beste zijn</t>
   </si>
   <si>
-    <t>6u</t>
+    <t>Github aanmaken + project op orde stellen</t>
+  </si>
+  <si>
+    <t>Casussen overlopen</t>
+  </si>
+  <si>
+    <t>Casus Chain Analysis bestuderen</t>
+  </si>
+  <si>
+    <t>1u30</t>
+  </si>
+  <si>
+    <t>Casus Economic Analysis bestuderen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adhv verschillende strategieën simulaties maken </t>
+  </si>
+  <si>
+    <t>4u</t>
   </si>
 </sst>
 </file>
@@ -142,7 +160,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -150,6 +168,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -433,15 +452,15 @@
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="57.5703125" customWidth="1"/>
+    <col min="1" max="1" width="57.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -464,7 +483,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -483,7 +502,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -500,7 +519,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
@@ -517,7 +536,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
@@ -534,7 +553,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>14</v>
       </c>
@@ -551,105 +570,153 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
+    <row r="7" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="6">
+        <v>42078</v>
+      </c>
+      <c r="C7" s="4"/>
+      <c r="D7" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B8" s="3">
         <v>42079</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2" t="s">
+      <c r="C8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A8" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" s="6">
-        <v>42078</v>
-      </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-    </row>
-    <row r="10" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A10" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="6">
+    <row r="9" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="3">
+        <v>42080</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="3">
+        <v>42088</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="6">
         <v>42103</v>
       </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-    </row>
-    <row r="12" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
+      <c r="F11" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="6">
+        <v>42103</v>
+      </c>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-    </row>
-    <row r="13" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
+      <c r="E12" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="6">
+        <v>42103</v>
+      </c>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-    </row>
-    <row r="14" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
+      <c r="E13" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="6">
+        <v>42103</v>
+      </c>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-    </row>
-    <row r="15" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E14" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
@@ -658,7 +725,7 @@
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
     </row>
-    <row r="16" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
@@ -667,7 +734,7 @@
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
     </row>
-    <row r="17" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
@@ -676,7 +743,7 @@
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
     </row>
-    <row r="18" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
@@ -685,7 +752,7 @@
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
     </row>
-    <row r="19" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>

--- a/Logboek.xlsx
+++ b/Logboek.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="31">
   <si>
     <t>Taak</t>
   </si>
@@ -103,6 +103,15 @@
   </si>
   <si>
     <t>4u</t>
+  </si>
+  <si>
+    <t>Latex document aanpassen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Simulatie gegevens nakijken + verbeteren </t>
+  </si>
+  <si>
+    <t>1u</t>
   </si>
 </sst>
 </file>
@@ -160,7 +169,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -169,6 +178,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -452,7 +462,7 @@
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -717,22 +727,38 @@
       </c>
     </row>
     <row r="15" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
+      <c r="A15" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="8">
+        <v>42105</v>
+      </c>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
+      <c r="E15" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
+      <c r="G15" s="5" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="16" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
+      <c r="A16" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" s="6">
+        <v>42106</v>
+      </c>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
+      <c r="E16" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
+      <c r="G16" s="5" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="17" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>

--- a/Logboek.xlsx
+++ b/Logboek.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="33">
   <si>
     <t>Taak</t>
   </si>
@@ -112,6 +112,12 @@
   </si>
   <si>
     <t>1u</t>
+  </si>
+  <si>
+    <t>Paper aanvullen, grafiek + conclusie</t>
+  </si>
+  <si>
+    <t>6u</t>
   </si>
 </sst>
 </file>
@@ -462,7 +468,7 @@
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -761,13 +767,23 @@
       </c>
     </row>
     <row r="17" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
+      <c r="A17" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" s="6">
+        <v>42107</v>
+      </c>
       <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
+      <c r="D17" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
+      <c r="G17" s="5" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="18" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>

--- a/Logboek.xlsx
+++ b/Logboek.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jari\Documents\GitHub\ProjectOnderzoekstechnieken16\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jelle\Documents\GitHub\ProjectOnderzoekstechnieken16\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7752"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="34">
   <si>
     <t>Taak</t>
   </si>
@@ -118,6 +118,9 @@
   </si>
   <si>
     <t>6u</t>
+  </si>
+  <si>
+    <t>Conclusie aanpassen + Basic strategies kleuren</t>
   </si>
 </sst>
 </file>
@@ -468,15 +471,15 @@
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="57.5546875" customWidth="1"/>
+    <col min="1" max="1" width="57.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -499,7 +502,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -518,7 +521,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -535,7 +538,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
@@ -552,7 +555,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
@@ -569,7 +572,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>14</v>
       </c>
@@ -586,7 +589,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>18</v>
       </c>
@@ -603,7 +606,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>16</v>
       </c>
@@ -620,7 +623,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
         <v>21</v>
       </c>
@@ -643,7 +646,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
         <v>22</v>
       </c>
@@ -660,7 +663,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>23</v>
       </c>
@@ -677,7 +680,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>25</v>
       </c>
@@ -694,7 +697,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>20</v>
       </c>
@@ -713,7 +716,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>26</v>
       </c>
@@ -732,7 +735,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>28</v>
       </c>
@@ -744,12 +747,14 @@
       <c r="E15" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F15" s="4"/>
+      <c r="F15" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="G15" s="5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>29</v>
       </c>
@@ -761,12 +766,14 @@
       <c r="E16" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F16" s="4"/>
+      <c r="F16" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="G16" s="5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>31</v>
       </c>
@@ -780,21 +787,31 @@
       <c r="E17" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F17" s="4"/>
+      <c r="F17" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="G17" s="5" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
+    <row r="18" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A18" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="6">
+        <v>42110</v>
+      </c>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-    </row>
-    <row r="19" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="F18" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>

--- a/Logboek.xlsx
+++ b/Logboek.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jelle\Documents\GitHub\ProjectOnderzoekstechnieken16\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daan\Desktop\BlackJack\ProjectOnderzoekstechnieken16\ProjectOnderzoekstechnieken16\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="37">
   <si>
     <t>Taak</t>
   </si>
@@ -121,6 +121,15 @@
   </si>
   <si>
     <t>Conclusie aanpassen + Basic strategies kleuren</t>
+  </si>
+  <si>
+    <t>Latex bestand aanmaken</t>
+  </si>
+  <si>
+    <t>Latex inleiding + tabel</t>
+  </si>
+  <si>
+    <t>Nalezen</t>
   </si>
 </sst>
 </file>
@@ -468,10 +477,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -648,77 +657,81 @@
     </row>
     <row r="10" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" s="3">
+        <v>42080</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A11" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B11" s="3">
         <v>42088</v>
       </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7" t="s">
+      <c r="C11" s="2"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A11" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" s="6">
-        <v>42103</v>
-      </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B12" s="6">
         <v>42103</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
-      <c r="E12" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F12" s="5"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="G12" s="5" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="B13" s="6">
         <v>42103</v>
       </c>
-      <c r="C13" s="4"/>
+      <c r="C13" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="D13" s="4"/>
-      <c r="E13" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>8</v>
-      </c>
+      <c r="E13" s="4"/>
+      <c r="F13" s="5"/>
       <c r="G13" s="5" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B14" s="6">
         <v>42103</v>
@@ -728,19 +741,17 @@
       <c r="E14" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="5" t="s">
-        <v>8</v>
-      </c>
+      <c r="F14" s="5"/>
       <c r="G14" s="5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B15" s="8">
-        <v>42105</v>
+        <v>20</v>
+      </c>
+      <c r="B15" s="6">
+        <v>42103</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
@@ -756,10 +767,10 @@
     </row>
     <row r="16" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B16" s="6">
-        <v>42106</v>
+        <v>42103</v>
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
@@ -770,20 +781,18 @@
         <v>8</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B17" s="6">
-        <v>42107</v>
+        <v>28</v>
+      </c>
+      <c r="B17" s="8">
+        <v>42105</v>
       </c>
       <c r="C17" s="4"/>
-      <c r="D17" s="5" t="s">
-        <v>8</v>
-      </c>
+      <c r="D17" s="4"/>
       <c r="E17" s="5" t="s">
         <v>8</v>
       </c>
@@ -791,34 +800,84 @@
         <v>8</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B18" s="6">
-        <v>42110</v>
+        <v>42106</v>
       </c>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
+      <c r="E18" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="F18" s="5" t="s">
         <v>8</v>
       </c>
       <c r="G18" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A19" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" s="6">
+        <v>42107</v>
+      </c>
+      <c r="C19" s="4"/>
+      <c r="D19" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A20" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" s="6">
+        <v>42110</v>
+      </c>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G20" s="5" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
+    <row r="21" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A21" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B21" s="6">
+        <v>42112</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>10</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Logboek.xlsx
+++ b/Logboek.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daan\Desktop\BlackJack\ProjectOnderzoekstechnieken16\ProjectOnderzoekstechnieken16\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus Wauters Niels\Documents\GitHub\ProjectOnderzoekstechnieken16\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="37">
   <si>
     <t>Taak</t>
   </si>
@@ -480,7 +480,7 @@
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -792,7 +792,9 @@
         <v>42105</v>
       </c>
       <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
+      <c r="D17" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="E17" s="5" t="s">
         <v>8</v>
       </c>
@@ -811,7 +813,9 @@
         <v>42106</v>
       </c>
       <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
+      <c r="D18" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="E18" s="5" t="s">
         <v>8</v>
       </c>
@@ -870,8 +874,12 @@
       <c r="C21" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
+      <c r="D21" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="F21" s="5" t="s">
         <v>8</v>
       </c>
